--- a/biology/Médecine/Walter_Reed/Walter_Reed.xlsx
+++ b/biology/Médecine/Walter_Reed/Walter_Reed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walter Reed est un médecin militaire américain, né le 13 septembre 1851 à Belroi[1] et mort le 23 novembre 1902 à Washington. Il est connu pour avoir démontré le rôle des moustiques dans la fièvre jaune.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walter Reed est un médecin militaire américain, né le 13 septembre 1851 à Belroi et mort le 23 novembre 1902 à Washington. Il est connu pour avoir démontré le rôle des moustiques dans la fièvre jaune.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un pasteur méthodiste, Lemuel Sutton Reed, et de Pharaba née White.  Après des études primaires à Charlottesville, il fait ses études à l’université de Virginie et est diplômé en 1869.  Il devient interne au Brooklyn City Hospital.  En 1874, lors d’un voyage pour rendre visite à son père, il rencontre sa future femme, Émilie Lawrence, fille d’un planteur de Caroline du Nord.
 Reed décide alors d’entrer à l’armée pour la sécurité qu’elle lui offre.  Il devient, après des examens, premier-lieutenant. Débute alors une vie de garnison. Il passe cinq ans à Fort LowellFort Lowell et Fort Apache. Il est promu capitaine et est transféré à Fort McHenry (à Baltimore). Il commence alors à étudier la physiologie à l'université Johns Hopkins (1881-1882). Reed part à Fort Omaha (Nebraska) puis à Mount Vernon Barracks (en) (Alabama).  En 1890, il revient à Baltimore comme officier recruteur. 
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour faire face à l’épidémie de fièvre jaune qui sévissait dans le sud du pays (notamment lors de la guerre contre le Mexique) et surtout sur les troupes américaines stationnées à Cuba, un groupe de chercheurs, sous la direction de W.H. Welch, s’organise.  Reed et James Carroll (1854-1907) attribuent à la fièvre jaune, trois cent mille cas de 1793 à 1900 et une perte de cinq cents millions de dollars. La découverte, quelques années plus tôt, du rôle des moustiques dans la transmission du paludisme par Sir Ronald Ross (1857-1932), et celle de la filariose par Patrick Manson (1844-1922) orientent nettement les chercheurs de cette époque.
 En 1900, une mission scientifique, conduite par Reed, se rend à Cuba : elle comprend J. Carroll (1854-1907) pour la bactériologie, Jesse William Lazear (1866-1900), chargé des expériences sur les moustiques et de Aristides Agramonte (en) (1868-1931), chargé de la pathologie. Ils rencontrent le médecin et naturaliste cubain, Carlos Finlay (1833-1915) qui travaillait sur le sujet. Peu après, le rôle du moustique Culex fasciatus (appelé depuis Ǽdes ǽgypti) est démontré. Carroll et Lazear se sont malheureusement inoculés la maladie à cause des moustiques ; Lazear en meurt.
@@ -578,14 +594,16 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Walter Reed General Hospital (WRGH), Washington a ouvert ses portes le 1er mai 1909, sept ans après sa mort.
 Walter Reed Army Medical Center (WRAMC) a ouvert en 1977 comme le successeur de WRGH et fermé en 2011; il a été le  centre médical de soins tertiaires pour le monde entier de l'armée des États-Unis et a été utilisé par les membres du Congrès et des présidents.
  Walter Reed Army Institute of Research (WRAIR), près de Washington, est le plus grand centre de recherche biomédicale administré par le département de la Défense des États-Unis.
 Walter Reed National Military Medical Center, un nouveau complexe hospitalier construit sur le terrain de la National Naval Medical Center, Bethesda, Maryland, consacré en 2011.
 Cours de Médecine Tropicale Walter Reed
-Le lieu de naissance de Walter Reed, ajouté au Registre national des lieux historiques en 1973[2].
+Le lieu de naissance de Walter Reed, ajouté au Registre national des lieux historiques en 1973.
 Riverside Walter Reed Hospital à  Gloucester, Virginie (près de la maison natale de Reed) a ouvert le 13 septembre 1977.
 Le Comté d'Arlington, en Virginie a deux installations nommées d'après Reed : l'école Reed dans Westover et une communauté / centre pour personnes âgées près de Walter Reed Drive à Arlington Village.
 Walter Reed Middle School, North Hollywood, en Californie est nommé en l'honneur de Reed.
